--- a/assets/dataFiles/Six Days Tour Packages.xlsx
+++ b/assets/dataFiles/Six Days Tour Packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8611B6-5CA9-45B6-832A-61610AD3CCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37EA8D8-B1FE-4BCC-B0A3-E38B54DDC4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{320B3749-08A4-4BE5-AF41-4B9333082245}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="17" xr2:uid="{320B3749-08A4-4BE5-AF41-4B9333082245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -153,152 +153,458 @@
     <t xml:space="preserve">TRAVELLER A/C </t>
   </si>
   <si>
-    <t>DAY 1 FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY
-DAY 2 OOTY CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 3 OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; PROCEEDING TO KODAIKANAL
-DAY 4 KODAIKANAL LOCAL SIGHTSEEING -  KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM
-DAY 5 KODAIKANAL TO MYSORE, - LOCAL SIGHTSEEING MYSORE PALACE, BRINDAVAN GARDENS, RAIL MUSEUM, DATTA PEETHAM, KARANJI LAKE NATURE PARK, AND BACK TO HOTEL
-DAY 6 LOCAL SIGHTSEEING  CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, SRI RANGANATHA SWAMY TEMPLE,  TIPU SULTAN'S PALACE AND BACK TO MYSORE DROP</t>
-  </si>
-  <si>
-    <t>DAY 1 FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR  DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY
-DAY 2 OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 3 OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO COORG 
-DAY 4 COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG
-DAY 5 COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. LOCAL SIGHTSEEING  MYSORE PALACE, BRINDAVAN GARDENS &amp; NIGHT STAY IN MYSORE
-DAY 6 MYSORE LOCAL SIGHTSEEING, CHAMUNDI HILLS, MYSORE ZOO,LALITA MAHAL PALACE, RAIL MUSEUM, AND MYSORE DROP</t>
-  </si>
-  <si>
-    <t>DAY 1 FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY
-DAY 2 OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 3 OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO COORG
-DAY 4 COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG
-DAY 5 COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. LOCAL SIGHTSEEING  MYSORE PALACE, BRINDAVAN GARDENS &amp; NIGHT STAY IN MYSORE
-DAY 6 MYSORE LOCAL MYSORE LOCAL SIGHTSEEING, CHAMUNDI HILLS, MYSORE ZOO,LALITA MAHAL PALACE, RAIL MUSEUM, AND MYSORE DROP (OR) FROM MYSORE TO BANGALORE, BANGALORE LOCAL SIGHTSEEING AND DROP AT BANGALORE CITY OR AIRPORT</t>
-  </si>
-  <si>
-    <t>DAY 1 PICK UP FROM MYSORE AIRPROT / RAILWAYSTATION, LOCAL SIGHTSEEING - MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE. NIGHT STAY IN MYSORE
-DAY 2 MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING,  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM
-DAY 3 DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY
-DAY 4 OOTY TO WAYANAD, ON THE WAY LOCAL SIGHTSEEING PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO WAYANAD
-DAY 5 WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS
-DAY 6 AFTER CHECKOUT THE HOTEL , OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE.AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / MYSORE DROP</t>
-  </si>
-  <si>
-    <t>DAY 1 PICK UP FROM BANGALORE AIRPROT / RAILWAYSTATION, BANGALORE TO OOTY ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; REACH OOTY
-DAY 2 OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY
-DAY 3 OOTY TO COORG, ON THE WAY LOCAL SIGHTSEEING - OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND PROCEEDING TO COORG. NIGHT STAY IN COORG
-DAY 4 COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG
-DAY 5 AFTER LOCAL SIGHT SEEING, COORG TO MYSORE, MYSORE LOCAL SIGHTSEEING -  MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, NIGHT STAY IN MYSORE
-DAY 6 LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE, SRIRANGA PATNAM AND PROCEEDING TO BANGALORE, (BANGALORE CITY OR AIRPORT DROP)</t>
-  </si>
-  <si>
     <t>MAHINDRA XYLO A/C</t>
   </si>
   <si>
-    <t>DAY 1  PICK UP FROM BANGALORE AIRPROT / RAILWAYSTATION, LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; NIGHT STAY IN BANGALORE
-DAY 2 BANGALORE TO MYSORE, LOCALK SIGHTSEEING -  MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE. &amp; NIGHT STAY IN MYSORE
-DAY 3  MYSORE TO OOTY, ON THE WAY LOCAL SIGHTSEEING , PYKARA FALLS, PYKARA LAKE (BOATING), 6TH MILE, 9TH MILE CINE SHOOTING POINT, PINE FOREST, KAMARAJAR DAM, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, TNEN MOVING TO OOTY HOTEL FOR NIGHT STAY
-DAY 4  OOTY LOCAL SIGHTSEEING - OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 5 OOTY TO COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK &amp; BACK TO OOTY
-DAY 6 OOTY TO BANGALORE, ON THE WAY MUDUMALAI WILDLIFE SANCTUARY SIGHTSEEING, AND PROCEEDING TO BANGALORE CITY / AIRPORT DROP</t>
-  </si>
-  <si>
-    <t>DAY 1 PICK UP FROM BANGALORE AIRPROT / RAILWAYSTATION, BANGALORE TO MYSORE, LOCAL SIGHTSEEING - MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE. NIGHT STAY IN MYSORE
-DAY 2  MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING,  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM
-DAY 3 DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY
-DAY 4  OOTY TO WAYANAD, ON THE WAY LOCAL SIGHTSEEING PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO WAYANAD
-DAY 5 WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS
-DAY 6 AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / MYSORE / BANGALORE DROP</t>
-  </si>
-  <si>
     <t>MAZDA NON A/C</t>
   </si>
   <si>
     <t>COACH NON A/C</t>
   </si>
   <si>
-    <t>DAY 1  COIMBATORE TO OOTY , OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 2  OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY.
-DAY 3 OOTY TO KODAIKANAL - ON THE WAY LOCAL SIGHTSEEING - KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANL
-DAY 4 KODAIKANAL LOCAL SIGHTSEEING - COAKERS WALK, GREEN VALLEY VIEW, GOLF COURSE, PILLAR ROCKS, DEVIL’S KITCHEN (GUNA CAVE – OUTER VIEW), PINE FOREST, MOIER POINT, SHANTHY VALLEY, UPPER LAKE VIEW, KODAI CITY VIEW, KURINJI ANDAVAR TEMPLE, PALANI VIEW, CHETTIAR PARK, BEAR SHOLA FALLS, BRYANT PARK, KODAI LAKE
-DAY 5 SILENT VALLEY VIEW, FIRE TOWER, BERIJAM LAKE VIEW, CAPS FLY VALLEY, BERIJAM LAKE (THIS LAKE IS ABOUT 25 KMS FROM KODAIKANAL INSIDE FOREST AREA), 500 HUNDRED OLD TREE, DOLPHIN’S NOSE, MOUNTAIN BEAUTY, PAMBAR FALLS, FAIRY FALLS  &amp; BACK TO HOTEL
-DAY 6  KODAIKANAL TO COIMBATORE, ON THE WAY - SHENBAGANUR MUSEUM. SILVER CASCADE FALLS &amp; PROCEEDING TO COIMBATORE</t>
-  </si>
-  <si>
-    <t>DAY 1  COIMBATORE TO OOTY , OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 2  OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY
-DAY 3  OOTY TO KODAIKANAL - KODAIKANAL LOCAL SIGHTSEEING - COAKERS WALK, GREEN VALLEY VIEW, GOLF COURSE, PILLAR ROCKS, DEVIL’S KITCHEN (GUNA CAVE – OUTER VIEW), PINE FOREST, MOIER POINT, SHANTHY VALLEY, UPPER LAKE VIEW, KODAI CITY VIEW, KURINJI ANDAVAR TEMPLE
-DAY 4   KODAI LAKE AND PROCEEDING TO MUNNAR,  LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR HOTEL
-DAY 5   MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR
-DAY 6  MUNNAR TO COIMBATORE, ON THE WAY - TEA MESUEM, GREEN VALLEY VIEW, SANDAL WOOD FOREST, RAJAMALAI WILDLIFE SANCTUARY &amp; PROCEEDING TO COIMBATORE</t>
-  </si>
-  <si>
-    <t>DAY 1  COIMBATORE TO OOTY , OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 2  OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY
-DAY 3 OOTY TO MUNNAR - ON THE WAY LOCAL SIGHTSEEING - KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO MUNNAR
-DAY 4  MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR
-DAY 5 COCHIN ROAD SECTOR LOCAL SIGHTSEEING : IDEAL PARK, POTHAMEDU VIEW POINT, AATHUKADU WATER FALLS, SPICE GARDEN TOUR (ENTRANCE FEE RS 100.00 / HEAD), THEKKADY ROAD SECTOR LOCAL SIGHTSEEING : LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR
-DAY 6  MUNNAR TO COIMBATORE, ON THE WAY - TEA MESUEM, GREEN VALLEY VIEW, SANDAL WOOD FOREST, RAJAMALAI WILDLIFE SANCTUARY &amp; PROCEEDING TO COIMBATORE</t>
-  </si>
-  <si>
-    <t>DAY 1 COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY
-DAY 2 OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL
-DAY 3 OOTY TO COORG, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO COORG. NIGHT STAY IN COORG
-DAY 4 COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG
-DAY 5 COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. LOCAL SIGHTSEEING  MYSORE PALACE, BRINDAVAN GARDENS &amp; NIGHT STAY IN MYSORE
-DAY 6 MYSORE LOCAL MYSORE LOCAL SIGHTSEEING,, CHAMUNDI HILLS, MYSORE ZOO, AND MYSORE DROP OR PROCEEDING TO COIMBATORE CITY / AIRPORT DROP</t>
-  </si>
-  <si>
-    <t>DAY 1 COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY
-DAY 2 OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL
-DAY 3 OOTY TO COORG, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO COORG. NIGHT STAY IN COORG
-DAY 4 COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG
-DAY 5 COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. LOCAL SIGHTSEEING  MYSORE PALACE, BRINDAVAN GARDENS &amp; NIGHT STAY IN MYSORE
-DAY 6 MYSORE LOCAL MYSORE LOCAL SIGHTSEEING,, CHAMUNDI HILLS, MYSORE ZOO, AND MYSORE DROP OR PROCEEDING TO BANGALORE CITY / AIRPORT DROP</t>
-  </si>
-  <si>
-    <t>DAY 1 COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY
-DAY 2 OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL
-DAY 3 OOTY TO WAYANAD, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO WAYANAD. NIGHT STAY IN WAYANAD
-DAY 4 WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS &amp;  PROCEEDING TO WAYANAD. NIGHT STAY IN COORG
-DAY 5 COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG
-DAY 6 COORG TO MYSORE, MYSORE LOCAL MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO</t>
-  </si>
-  <si>
-    <t>DAY 1 COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY
-DAY 2 OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL
-DAY 3 OOTY TO WAYANAD, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO WAYANAD. NIGHT STAY IN WAYANAD
-DAY 4 WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS &amp;  PROCEEDING TO WAYANAD. NIGHT STAY IN COORG
-DAY 5 COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG
-DAY 6 COORG TO MYSORE, MYSORE LOCAL MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO  BANGALORE CITY / AIRPORT DROP</t>
-  </si>
-  <si>
     <t>INDIGO / ZEST A/C</t>
   </si>
   <si>
-    <t>DAY 1 COIMBATORE TO KODAIKANAL, LOCAL SIGHTSEEING  KODAIKANAL LAKE, COAKER'S WALK
-DAY 2 KODAIKANAL LOCAL SIGHTSEEING KODAIKANALR &amp; LOCAL SIGHTSEEING - PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE,DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM
-DAY 3 KODAIKANAL TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING - MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY, WAX MUSEUM, KETTI VALLEY VIEW, AND TO OOTY
-DAY 4 OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 5 OOTY TO MYSORE, ON THE WAY OOTY LOCAL SIGHTSEEING - KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE
-DAY 6 MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, AND AT MYSORE OR BACK TO COIMBATORE</t>
-  </si>
-  <si>
-    <t>DAY 1 COIMBATORE TO KODAIKANAL, LOCAL SIGHTSEEING  KODAIKANAL LAKE, COAKER'S WALK
-DAY 2 KODAIKANAL LOCAL SIGHTSEEING KODAIKANALR &amp; LOCAL SIGHTSEEING - PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE,DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM
-DAY 3 KODAIKANAL TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING - MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY, WAX MUSEUM, KETTI VALLEY VIEW, AND TO OOTY
-DAY 4 OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 5 OOTY TO MYSORE, ON THE WAY OOTY LOCAL SIGHTSEEING - KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE
-DAY 6  MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, AND PROCEEDING TO BANGALORE, (BANGALORE CITY OR AIRPORT DROP)</t>
-  </si>
-  <si>
-    <t>DAY 1  PICK UP FROM BANGALORE AIRPROT / RAILWAYSTATION, LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; NIGHT STAY IN BANGALORE
-DAY 2  BANGALORE TO MYSORE, LOCALK SIGHTSEEING -  MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE. &amp; NIGHT STAY IN MYSORE
-DAY 3  MYSORE TO OOTY, ON THE WAY LOCAL SIGHTSEEING , MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PYKARA FALLS, PYKARA LAKE (BOATING), 6TH MILE, 9TH MILE CINE SHOOTING POINT, PINE FOREST, KAMARAJAR DAM, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, TNEN MOVING TO OOTY HOTEL FOR NIGHT STAY
-DAY 4  OOTY LOCAL SIGHTSEEING - OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 5 OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY 
-DAY 6  OOTY TO COIMBATORE, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK &amp; PROCEEDING TO COIMBATORE</t>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt; OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING -  KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO MYSORE, LOCAL SIGHTSEEING MYSORE PALACE, BRINDAVAN GARDENS, RAIL MUSEUM, DATTA PEETHAM, KARANJI LAKE NATURE PARK, AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;LOCAL SIGHTSEEING CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, SRI RANGANATHA SWAMY TEMPLE,  TIPU SULTAN'S PALACE AND BACK TO MYSORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR  DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. LOCAL SIGHTSEEING  MYSORE PALACE, BRINDAVAN GARDENS &amp; NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE LOCAL SIGHTSEEING, CHAMUNDI HILLS, MYSORE ZOO,LALITA MAHAL PALACE, RAIL MUSEUM, AND MYSORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  COONOOR NILGIRI MOUNTAIN RAILWAY. KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK &amp; TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. LOCAL SIGHTSEEING  MYSORE PALACE, BRINDAVAN GARDENS &amp; NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE LOCAL MYSORE LOCAL SIGHTSEEING, CHAMUNDI HILLS, MYSORE ZOO,LALITA MAHAL PALACE, RAIL MUSEUM, AND MYSORE DROP (OR) FROM MYSORE TO BANGALORE, BANGALORE LOCAL SIGHTSEEING AND DROP AT BANGALORE CITY OR AIRPORT&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;PICK UP FROM MYSORE AIRPORT / RAILWAYSTATION, LOCAL SIGHTSEEING - MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE. NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING,  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO WAYANAD, ON THE WAY LOCAL SIGHTSEEING PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO WAYANAD&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt; AFTER CHECKOUT THE HOTEL , OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE.AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / MYSORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;PICK UP FROM BANGALORE AIRPORT / RAILWAYSTATION, BANGALORE TO OOTY ON THE WAY MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; REACH OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt; OOTY TO COORG, ON THE WAY LOCAL SIGHTSEEING - OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), AND PROCEEDING TO COORG. NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt; COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;AFTER LOCAL SIGHT SEEING, COORG TO MYSORE, MYSORE LOCAL SIGHTSEEING -  MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt; LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE, SRIRANGA PATNAM AND PROCEEDING TO BANGALORE, (BANGALORE CITY OR AIRPORT DROP)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;PICK UP FROM BANGALORE AIRPROT / RAILWAYSTATION, LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; NIGHT STAY IN BANGALORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;BANGALORE TO MYSORE, LOCAL SIGHTSEEING -  MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE. &amp; NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY, ON THE WAY LOCAL SIGHTSEEING , PYKARA FALLS, PYKARA LAKE (BOATING), 6TH MILE, 9TH MILE CINE SHOOTING POINT, PINE FOREST, KAMARAJAR DAM, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, TNEN MOVING TO OOTY HOTEL FOR NIGHT STAY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING - OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;OOTY TO BANGALORE, ON THE WAY MUDUMALAI WILDLIFE SANCTUARY SIGHTSEEING, AND PROCEEDING TO BANGALORE CITY / AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;PICK UP FROM BANGALORE AIRPORT / RAILWAYSTATION, BANGALORE TO MYSORE, LOCAL SIGHTSEEING - MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE. NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY, ON THE WAY  MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING,  OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO WAYANAD, ON THE WAY LOCAL SIGHTSEEING PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; TO WAYANAD&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;AFTER LOCAL SIGHT SEEING, WAYNAD TO CALICUT / MYSORE / BANGALORE DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL - ON THE WAY LOCAL SIGHTSEEING - KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING - COAKERS WALK, GREEN VALLEY VIEW, GOLF COURSE, PILLAR ROCKS, DEVIL’S KITCHEN (GUNA CAVE – OUTER VIEW), PINE FOREST, MOIER POINT, SHANTHY VALLEY, UPPER LAKE VIEW, KODAI CITY VIEW, KURINJI ANDAVAR TEMPLE, PALANI VIEW, CHETTIAR PARK, BEAR SHOLA FALLS, BRYANT PARK, KODAI LAKE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;SILENT VALLEY VIEW, FIRE TOWER, BERIJAM LAKE VIEW, CAPS FLY VALLEY, BERIJAM LAKE (THIS LAKE IS ABOUT 25 KMS FROM KODAIKANAL INSIDE FOREST AREA), 500 HUNDRED OLD TREE, DOLPHIN’S NOSE, MOUNTAIN BEAUTY, PAMBAR FALLS, FAIRY FALLS  &amp; BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO COIMBATORE, ON THE WAY - SHENBAGANUR MUSEUM. SILVER CASCADE FALLS &amp; PROCEEDING TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL - KODAIKANAL LOCAL SIGHTSEEING - COAKERS WALK, GREEN VALLEY VIEW, GOLF COURSE, PILLAR ROCKS, DEVIL’S KITCHEN (GUNA CAVE – OUTER VIEW), PINE FOREST, MOIER POINT, SHANTHY VALLEY, UPPER LAKE VIEW, KODAI CITY VIEW, KURINJI ANDAVAR TEMPLE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAI LAKE AND PROCEEDING TO MUNNAR,  LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MUNNAR TO COIMBATORE, ON THE WAY - TEA MESUEM, GREEN VALLEY VIEW, SANDAL WOOD FOREST, RAJAMALAI WILDLIFE SANCTUARY &amp; PROCEEDING TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY , OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MUNNAR - ON THE WAY LOCAL SIGHTSEEING - KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;COCHIN ROAD SECTOR LOCAL SIGHTSEEING : IDEAL PARK, POTHAMEDU VIEW POINT, AATHUKADU WATER FALLS, SPICE GARDEN TOUR (ENTRANCE FEE RS 100.00 / HEAD), THEKKADY ROAD SECTOR LOCAL SIGHTSEEING : LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MUNNAR TO COIMBATORE, ON THE WAY - TEA MESUEM, GREEN VALLEY VIEW, SANDAL WOOD FOREST, RAJAMALAI WILDLIFE SANCTUARY &amp; PROCEEDING TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE (BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO COORG, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO COORG. NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. LOCAL SIGHTSEEING  MYSORE PALACE, BRINDAVAN GARDENS &amp; NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE LOCAL SIGHTSEEING, CHAMUNDI HILLS, MYSORE ZOO, AND MYSORE DROP OR PROCEEDING TO COIMBATORE CITY / AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE (BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO COORG, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO COORG. NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. LOCAL SIGHTSEEING  MYSORE PALACE, BRINDAVAN GARDENS &amp; NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE LOCAL MYSORE LOCAL SIGHTSEEING,, CHAMUNDI HILLS, MYSORE ZOO, AND MYSORE DROP OR PROCEEDING TO BANGALORE CITY / AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE (BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO WAYANAD, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO WAYANAD. NIGHT STAY IN WAYANAD&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS &amp;  PROCEEDING TO WAYANAD. NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;COORG TO MYSORE, MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE (BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO WAYANAD, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO WAYANAD. NIGHT STAY IN WAYANAD&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;WAYANAD LOCAL SIGHTSEEING - ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, BEGUR WILDLIFE SANCTUARY, CHEMBRA PEAK, EDAKKAL CAVES, MEENMUTTY FALLS, KANTHAPARA FALLS, SOOCHIPARA FALLS &amp;  PROCEEDING TO WAYANAD. NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;COORG TO MYSORE, MYSORE LOCAL MYSORE LOCAL SIGHTSEEING, MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, AND PROCEEDING TO  BANGALORE CITY / AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO KODAIKANAL, LOCAL SIGHTSEEING  KODAIKANAL LAKE, COAKER'S WALK&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING KODAIKANALR &amp; LOCAL SIGHTSEEING - PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE,DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING - MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY, WAX MUSEUM, KETTI VALLEY VIEW, AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE, ON THE WAY OOTY LOCAL SIGHTSEEING - KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, AND AT MYSORE OR BACK TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO KODAIKANAL, LOCAL SIGHTSEEING  KODAIKANAL LAKE, COAKER'S WALK&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING KODAIKANALR &amp; LOCAL SIGHTSEEING - PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE,DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING - MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY, WAX MUSEUM, KETTI VALLEY VIEW, AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE, ON THE WAY OOTY LOCAL SIGHTSEEING - KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, AND PROCEEDING TO BANGALORE, (BANGALORE CITY OR AIRPORT DROP)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;PICK UP FROM BANGALORE AIRPORT / RAILWAYSTATION, LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; NIGHT STAY IN BANGALORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;BANGALORE TO MYSORE, LOCAL SIGHTSEEING -  MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE. &amp; NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt; MYSORE TO OOTY, ON THE WAY LOCAL SIGHTSEEING , MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING, PYKARA FALLS, PYKARA LAKE (BOATING), 6TH MILE, 9TH MILE CINE SHOOTING POINT, PINE FOREST, KAMARAJAR DAM, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, TNEN MOVING TO OOTY HOTEL FOR NIGHT STAY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt; OOTY LOCAL SIGHTSEEING - OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY &lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;OOTY TO COIMBATORE, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK &amp; PROCEEDING TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -481,24 +787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,6 +820,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,77 +1170,77 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -944,7 +1250,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -958,7 +1264,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,144 +1276,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>22900</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>22900</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>22900</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>29400</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>29400</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>39450</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>41350</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>43100</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1125,7 +1431,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,144 +1443,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>22900</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>22900</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>22900</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>29400</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>29400</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>39450</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>41350</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>43100</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1292,7 +1598,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,144 +1610,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>22900</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>22900</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>22900</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>29400</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>29400</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>39450</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>41350</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>43100</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1459,7 +1765,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,144 +1777,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>26250</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>26250</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>26250</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>34150</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>34150</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>44950</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>48250</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>50250</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1626,7 +1932,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,144 +1944,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>21550</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>21550</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>21550</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>28750</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>28750</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>38350</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>41150</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>42750</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1793,7 +2099,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,144 +2111,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>26550</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>26550</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>26550</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>34550</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>34550</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>45350</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>48700</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>50700</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1960,7 +2266,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,158 +2278,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7">
         <v>23550</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>23550</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>23550</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>23550</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
         <v>31050</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>31050</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>41250</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>43900</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <v>45700</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2140,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20E6080-3DB3-496F-99DC-8ABD055FD736}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,158 +2459,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7">
         <v>27500</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>27500</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>27500</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>27500</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
         <v>35600</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>35600</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>46700</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>49950</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <v>52050</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2321,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938CB76F-EFD0-46F2-94D8-8D76BEBF2E6F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,144 +2640,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>23750</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>23750</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>23750</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>31150</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>31150</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>41200</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>44100</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>45850</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2489,7 +2795,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,130 +2807,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>26800</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>26800</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>26800</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>33100</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>36700</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>40950</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>42750</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2642,7 +2948,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,130 +2960,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>26800</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>26800</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>26800</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>33100</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>36700</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>40950</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>42750</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2796,7 +3102,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,130 +3114,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>26900</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>26900</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>26900</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>33200</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>36800</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>40950</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>42750</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2949,7 +3255,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2961,116 +3267,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>27100</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>27100</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>33650</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>37250</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>41450</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <v>43250</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3088,7 +3394,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,130 +3406,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>26600</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>26600</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>26600</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>35000</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>36800</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>46650</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>48750</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3242,7 +3548,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,144 +3560,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>26500</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>26500</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>26500</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>34500</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>34500</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>36300</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>46650</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>48750</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3408,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808E979C-0963-4EF5-878D-71B18270BE40}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,144 +3727,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>27150</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>27150</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>27150</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>35650</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>35650</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>37450</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>46850</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>48750</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3575,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7164D22B-219F-40B7-8DD5-24B309DBD70B}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,172 +3894,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>27150</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>27150</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>27150</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>35650</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>35650</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>37450</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>46850</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>48750</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7">
         <v>40750</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7">
         <v>40750</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="8" t="s">
         <v>3</v>
       </c>
     </row>
